--- a/css.xlsx
+++ b/css.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1496">
   <si>
     <t>:active</t>
   </si>
@@ -3470,10 +3470,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">内容未通过验证的 &lt;input&gt; 或其他 &lt;form&gt; 元素 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>input:invalid {
   background-color: pink;
 }</t>
@@ -5548,6 +5544,58 @@
   </si>
   <si>
     <t>长度百分比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie和edge不支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果 input 元素中的值是非法的，设置样式为红色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>none | hidden | dotted | dashed | solid | double | groove | ridge | inset | outset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-style: dashed;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br-width&gt; | &lt;br-style&gt; |&lt;color&gt; </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top: 4px dashed blue;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top-left-radius: 3px;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;length&gt; | &lt;percentage&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top-right-radius:40%;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top-style: dotted;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-top-width: thick;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;length&gt; | thin | medium | thick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-width: 2px 1.5em;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5744,9 +5792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5755,6 +5800,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6040,8 +6088,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:E578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="A361" sqref="A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6049,7 +6097,7 @@
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6162,13 +6210,13 @@
         <v>594</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1371</v>
+        <v>1363</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1370</v>
       </c>
       <c r="E12" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6179,13 +6227,13 @@
         <v>595</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1366</v>
-      </c>
       <c r="E13" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6196,13 +6244,13 @@
         <v>596</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>1368</v>
-      </c>
       <c r="E14" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6210,16 +6258,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1376</v>
+        <v>1368</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1375</v>
       </c>
       <c r="E15" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,11 +6280,11 @@
       <c r="C16" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1370</v>
+      <c r="D16" s="3" t="s">
+        <v>1369</v>
       </c>
       <c r="E16" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6247,13 +6295,13 @@
         <v>599</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>1379</v>
-      </c>
       <c r="E17" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6264,10 +6312,10 @@
         <v>600</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D18" s="1" t="s">
         <v>1372</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6275,13 +6323,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1383</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6289,13 +6337,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1386</v>
+      <c r="D20" s="3" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6303,27 +6351,27 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>1381</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>1388</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6331,10 +6379,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1390</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6345,10 +6393,10 @@
         <v>601</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>1392</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6364,13 +6412,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D26" s="1" t="s">
         <v>1394</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -6378,16 +6426,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E27" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6395,13 +6443,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>1401</v>
+      <c r="D28" s="3" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -6412,10 +6460,10 @@
         <v>604</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>1403</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6426,10 +6474,10 @@
         <v>605</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>1405</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6437,13 +6485,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>1408</v>
+      <c r="D31" s="3" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6451,13 +6499,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>1410</v>
+      <c r="D32" s="3" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6468,7 +6516,7 @@
         <v>608</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6479,10 +6527,10 @@
         <v>609</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>1412</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6493,7 +6541,7 @@
         <v>610</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6501,13 +6549,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>1416</v>
+      <c r="D36" s="3" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6528,11 +6576,11 @@
       <c r="C38" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>1417</v>
+      <c r="D38" s="3" t="s">
+        <v>1416</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6540,13 +6588,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>1419</v>
+      <c r="D39" s="3" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6556,8 +6604,8 @@
       <c r="B40" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>1420</v>
+      <c r="D40" s="3" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,7 +6616,7 @@
         <v>617</v>
       </c>
       <c r="E41" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6579,7 +6627,7 @@
         <v>617</v>
       </c>
       <c r="E42" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6590,7 +6638,7 @@
         <v>617</v>
       </c>
       <c r="E43" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6604,7 +6652,7 @@
         <v>618</v>
       </c>
       <c r="E44" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6618,7 +6666,7 @@
         <v>619</v>
       </c>
       <c r="E45" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6632,7 +6680,7 @@
         <v>620</v>
       </c>
       <c r="E46" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6640,7 +6688,7 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,7 +6696,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6656,7 +6704,7 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,7 +6712,7 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,7 +6720,7 @@
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6683,7 +6731,7 @@
         <v>617</v>
       </c>
       <c r="E52" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6696,8 +6744,8 @@
       <c r="C53" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>1450</v>
+      <c r="D53" s="3" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6708,10 +6756,10 @@
         <v>623</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D54" s="1" t="s">
         <v>1451</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6722,7 +6770,7 @@
         <v>624</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6733,7 +6781,7 @@
         <v>625</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6741,13 +6789,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>1457</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6758,10 +6806,10 @@
         <v>626</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>1458</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6774,8 +6822,8 @@
       <c r="C59" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>1460</v>
+      <c r="D59" s="3" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6786,7 +6834,7 @@
         <v>629</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6821,13 +6869,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>1465</v>
+      <c r="D64" s="3" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6835,16 +6883,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>1477</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1478</v>
-      </c>
       <c r="E65" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6852,13 +6900,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>1480</v>
+      <c r="D66" s="3" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6871,8 +6919,8 @@
       <c r="C67" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>1467</v>
+      <c r="D67" s="3" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6883,7 +6931,7 @@
         <v>637</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6947,10 +6995,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>1354</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6958,10 +7006,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>1354</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7015,10 +7063,10 @@
         <v>641</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7029,10 +7077,10 @@
         <v>642</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>1472</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7045,8 +7093,8 @@
       <c r="C85" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>1474</v>
+      <c r="D85" s="3" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7089,10 +7137,10 @@
         <v>649</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>1475</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7118,6 +7166,12 @@
       <c r="B93" s="4" t="s">
         <v>650</v>
       </c>
+      <c r="C93" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -7126,6 +7180,12 @@
       <c r="B94" s="4" t="s">
         <v>651</v>
       </c>
+      <c r="C94" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>1487</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -7142,40 +7202,67 @@
       <c r="B96" s="4" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -7183,7 +7270,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -7191,7 +7278,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -7199,7 +7286,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -7210,7 +7297,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -7221,7 +7308,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -7232,7 +7319,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -7240,7 +7327,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -7251,7 +7338,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -7262,7 +7349,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -7273,7 +7360,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -7284,7 +7371,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -7722,7 +7809,7 @@
       <c r="B158" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="18" t="s">
         <v>781</v>
       </c>
     </row>
@@ -7874,7 +7961,7 @@
       <c r="B174" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="19" t="s">
         <v>802</v>
       </c>
     </row>
@@ -8887,7 +8974,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>271</v>
       </c>
@@ -8898,7 +8985,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>272</v>
       </c>
@@ -8906,7 +8993,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
@@ -8917,7 +9004,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>274</v>
       </c>
@@ -8925,127 +9012,133 @@
         <v>976</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B278" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D278" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="C281" s="3" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="C282" s="3" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="C283" s="3" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B285" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C285" s="3" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B288" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9061,10 +9154,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9072,7 +9165,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9080,7 +9173,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9088,7 +9181,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9096,7 +9189,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9104,10 +9197,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9115,10 +9208,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9126,10 +9219,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9137,10 +9230,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9148,10 +9241,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9159,10 +9252,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9170,10 +9263,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>1013</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9181,10 +9274,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9192,10 +9285,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>1017</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9203,10 +9296,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9214,10 +9307,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>1021</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9225,10 +9318,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>1023</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9236,10 +9329,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>1025</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9247,10 +9340,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>1027</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9258,10 +9351,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9269,10 +9362,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>1031</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9280,10 +9373,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>1033</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9296,10 +9389,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>1035</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9307,10 +9400,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>1037</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9318,7 +9411,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9326,10 +9419,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1040</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9337,10 +9430,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9348,10 +9441,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9359,10 +9452,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9370,10 +9463,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9381,10 +9474,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9392,10 +9485,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9403,10 +9496,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>1054</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9414,10 +9507,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9425,10 +9518,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9436,10 +9529,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>1060</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9447,10 +9540,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>1062</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9458,10 +9551,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9469,10 +9562,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>1066</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9485,7 +9578,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9503,7 +9596,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9511,7 +9604,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9524,7 +9617,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9542,7 +9635,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9560,10 +9653,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>1073</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9571,10 +9664,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9582,7 +9675,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9590,7 +9683,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9598,7 +9691,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9611,10 +9704,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9622,10 +9715,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>1082</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9633,7 +9726,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9641,7 +9734,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9649,10 +9742,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>1086</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9660,7 +9753,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9668,7 +9761,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9676,10 +9769,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9687,10 +9780,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9698,10 +9791,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C358" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9709,10 +9802,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9720,10 +9813,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C360" s="3" t="s">
         <v>1098</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -9731,10 +9824,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9742,10 +9835,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>1102</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9753,10 +9846,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>1104</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9764,7 +9857,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9772,10 +9865,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>1107</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9783,10 +9876,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C366" s="3" t="s">
         <v>1109</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -9794,10 +9887,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9805,10 +9898,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C368" s="3" t="s">
         <v>1113</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9816,10 +9909,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9827,10 +9920,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9838,10 +9931,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9849,10 +9942,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9860,10 +9953,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9871,10 +9964,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9882,7 +9975,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9890,7 +9983,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9898,10 +9991,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C377" s="3" t="s">
         <v>1128</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9909,7 +10002,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9917,7 +10010,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9925,7 +10018,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9933,7 +10026,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9941,7 +10034,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9949,10 +10042,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C383" s="3" t="s">
         <v>1135</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9960,10 +10053,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C384" s="3" t="s">
         <v>1137</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9971,10 +10064,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9982,7 +10075,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9990,7 +10083,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9998,7 +10091,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10006,7 +10099,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10024,10 +10117,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C392" s="3" t="s">
         <v>1145</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10035,7 +10128,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10043,10 +10136,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>1147</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10054,10 +10147,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C395" s="3" t="s">
         <v>1149</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10065,7 +10158,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10073,10 +10166,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10084,10 +10177,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>1154</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10095,10 +10188,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C399" s="3" t="s">
         <v>1156</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10106,10 +10199,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C400" s="3" t="s">
         <v>1158</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10117,12 +10210,12 @@
         <v>399</v>
       </c>
       <c r="B401" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C401" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="C401" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D401" s="17" t="s">
+      <c r="D401" s="20" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10131,10 +10224,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C402" s="3" t="s">
         <v>1162</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10142,7 +10235,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10150,10 +10243,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10161,10 +10254,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10172,10 +10265,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C406" s="3" t="s">
         <v>1169</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10183,7 +10276,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10191,7 +10284,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10199,7 +10292,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10207,10 +10300,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>1174</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10218,10 +10311,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C411" s="3" t="s">
         <v>1176</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10229,10 +10322,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C412" s="3" t="s">
         <v>1178</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10240,7 +10333,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10248,10 +10341,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -10259,10 +10352,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C415" s="3" t="s">
         <v>1183</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10270,162 +10363,165 @@
         <v>414</v>
       </c>
       <c r="B416" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="C416" s="3" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B417" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C417" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="C417" s="3" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B419" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C419" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="C419" s="3" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B420" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C420" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="C420" s="3" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B421" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="C421" s="3" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B422" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="C422" s="3" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D422" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B423" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C423" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="C423" s="3" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>422</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B425" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="C425" s="3" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>425</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="C428" s="3" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B432" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C432" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10433,10 +10529,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C433" s="3" t="s">
         <v>1211</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10444,10 +10540,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C434" s="3" t="s">
         <v>1213</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10455,7 +10551,7 @@
         <v>433</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10463,7 +10559,7 @@
         <v>434</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10471,7 +10567,7 @@
         <v>435</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10479,10 +10575,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C438" s="3" t="s">
         <v>1218</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10490,7 +10586,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10498,10 +10594,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10509,10 +10605,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C441" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -10520,10 +10616,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C442" s="3" t="s">
         <v>1225</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10531,7 +10627,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10539,10 +10635,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C444" s="3" t="s">
         <v>1228</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10550,7 +10646,7 @@
         <v>443</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10558,7 +10654,7 @@
         <v>444</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10566,7 +10662,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10574,10 +10670,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C448" s="3" t="s">
         <v>1233</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10585,7 +10681,7 @@
         <v>447</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10593,10 +10689,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>1236</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10724,7 +10820,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10732,10 +10828,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>1316</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10751,10 +10847,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10762,7 +10858,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10770,10 +10866,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C480" s="3" t="s">
         <v>1321</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10781,10 +10877,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10792,10 +10888,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C482" s="3" t="s">
         <v>1325</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10803,10 +10899,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10814,10 +10910,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C484" s="3" t="s">
         <v>1329</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10825,7 +10921,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10833,10 +10929,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C486" s="3" t="s">
         <v>1332</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10844,10 +10940,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C487" s="3" t="s">
         <v>1334</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10855,10 +10951,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C488" s="3" t="s">
         <v>1336</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10866,10 +10962,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C489" s="14" t="s">
         <v>1338</v>
-      </c>
-      <c r="C489" s="14" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10877,7 +10973,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10885,7 +10981,7 @@
         <v>489</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10893,10 +10989,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10904,10 +11000,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10915,7 +11011,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10923,10 +11019,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10934,10 +11030,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C496" s="3" t="s">
         <v>1349</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10945,10 +11041,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C497" s="3" t="s">
         <v>1345</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10956,7 +11052,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10964,10 +11060,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C499" s="3" t="s">
         <v>1313</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10975,10 +11071,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C500" s="3" t="s">
         <v>1311</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10986,10 +11082,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C501" s="3" t="s">
         <v>1309</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10997,10 +11093,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11008,10 +11104,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C503" s="3" t="s">
         <v>1305</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11019,10 +11115,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C504" s="3" t="s">
         <v>1303</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11054,10 +11150,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C508" s="3" t="s">
         <v>1301</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11065,10 +11161,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C509" s="3" t="s">
         <v>1299</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11076,10 +11172,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11087,10 +11183,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11098,10 +11194,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>1293</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11109,10 +11205,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C513" s="3" t="s">
         <v>1291</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11120,10 +11216,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C514" s="3" t="s">
         <v>1289</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11131,10 +11227,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11142,10 +11238,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C516" s="3" t="s">
         <v>1285</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11153,10 +11249,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C517" s="3" t="s">
         <v>1283</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11164,10 +11260,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C518" s="3" t="s">
         <v>1281</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11175,10 +11271,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C519" s="3" t="s">
         <v>1279</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11186,10 +11282,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C520" s="3" t="s">
         <v>1277</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11197,10 +11293,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>1275</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11208,10 +11304,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C522" s="3" t="s">
         <v>1273</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11219,10 +11315,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C523" s="3" t="s">
         <v>1271</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11230,10 +11326,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C524" s="3" t="s">
         <v>1269</v>
-      </c>
-      <c r="C524" s="3" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11241,10 +11337,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C525" s="3" t="s">
         <v>1267</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11252,10 +11348,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C526" s="3" t="s">
         <v>1265</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11263,7 +11359,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11271,7 +11367,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11279,10 +11375,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C529" s="3" t="s">
         <v>1261</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11290,7 +11386,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11298,7 +11394,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11306,10 +11402,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C532" s="3" t="s">
         <v>1257</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11317,10 +11413,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C533" s="3" t="s">
         <v>1255</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11328,10 +11424,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C534" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="C534" s="3" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11339,10 +11435,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C535" s="3" t="s">
         <v>1251</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11350,10 +11446,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C536" s="3" t="s">
         <v>1249</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11361,10 +11457,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C537" s="3" t="s">
         <v>1247</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11372,10 +11468,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C538" s="3" t="s">
         <v>1245</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11383,10 +11479,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C539" s="3" t="s">
         <v>1243</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11394,13 +11490,13 @@
         <v>538</v>
       </c>
       <c r="B540" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C540" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="C540" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D540" s="1" t="s">
-        <v>1240</v>
+      <c r="D540" s="3" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11408,10 +11504,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C541" s="3" t="s">
         <v>1238</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11610,7 +11706,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -12335,18 +12431,18 @@
   <sheetData>
     <row r="2" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>1356</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>1358</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -12354,7 +12450,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -12369,15 +12465,15 @@
     </row>
     <row r="7" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>1361</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>593</v>
@@ -12405,123 +12501,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1" t="s">
         <v>1426</v>
       </c>
-      <c r="B1" t="s">
-        <v>1427</v>
-      </c>
       <c r="C1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B4" t="s">
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B5" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C5" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B7" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
   </sheetData>

--- a/css.xlsx
+++ b/css.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1524">
   <si>
     <t>:active</t>
   </si>
@@ -2188,14 +2188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>英文的看不懂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>看不懂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>指定样式表中使用的字符编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2211,10 +2203,6 @@
   </si>
   <si>
     <t>basic-shape图形的圆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>width: clamp(10px, 4em, 80px);</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2452,10 +2440,6 @@
   </si>
   <si>
     <t>跨列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>column-count:4;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5596,6 +5580,134 @@
   </si>
   <si>
     <t>border-width: 2px 1.5em;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外|xy轴偏移量/模糊度/颜色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content-box | border-box</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>page-break-before 属性,列或区域在生成的盒子之前应如何处理中断。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto | avoid | always | all | avoid-page | page | left | right | recto | verso | avoid-column | column | avoid-region | region</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto | avoid | avoid-page | avoid-column | avoid-region</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;number&gt;或&lt;percentage&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>top | bottom | block-start | block-end | inline-start | inline-end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto | &lt;color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @font-feature-values其中一个值,字符变量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于styleset（），但不会为一组字符创建一致的glyph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @charset "UTF-8";</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪类一个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[&lt;shape-radius&gt;]? [at &lt;position&gt;]? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值、首选值和最大允许值。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>width: clamp(10px, 4em, 80px);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有一个浏览器支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear: both;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>none | left | right | both | inline-start | inline-end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;clip-source&gt; | &lt;basic-shape&gt; | &lt;geometry-box&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto | &lt;number&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;length&gt; | &lt;percentage&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;'column-rule-width'&gt; || &lt;'column-rule-style'&gt; || &lt;'column-rule-color'&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>column-rule-color: rgb(192, 56, 78);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -moz-column-rule-style: inset;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br-style&gt; </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;length&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>column-rule-width: thick;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>column-span: all;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>none | all</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>column-width: 25em;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>atuo | &lt;length&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6088,8 +6200,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:E578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="A361" sqref="A361"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6210,13 +6322,13 @@
         <v>594</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E12" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6227,13 +6339,13 @@
         <v>595</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="E13" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6244,13 +6356,13 @@
         <v>596</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="E14" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6258,16 +6370,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="E15" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6281,10 +6393,10 @@
         <v>597</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E16" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6295,13 +6407,13 @@
         <v>599</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="E17" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6312,10 +6424,10 @@
         <v>600</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6323,13 +6435,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6337,13 +6449,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6351,13 +6463,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6365,13 +6477,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6379,10 +6491,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6393,10 +6505,10 @@
         <v>601</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6412,13 +6524,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -6426,16 +6538,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="E27" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,13 +6555,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>603</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -6460,10 +6572,10 @@
         <v>604</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,10 +6586,10 @@
         <v>605</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6485,13 +6597,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>606</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6499,13 +6611,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>607</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6516,7 +6628,7 @@
         <v>608</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6527,10 +6639,10 @@
         <v>609</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6541,7 +6653,7 @@
         <v>610</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6549,13 +6661,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>611</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6577,10 +6689,10 @@
         <v>614</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6588,13 +6700,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>615</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6605,7 +6717,7 @@
         <v>616</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6616,7 +6728,7 @@
         <v>617</v>
       </c>
       <c r="E41" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6627,7 +6739,7 @@
         <v>617</v>
       </c>
       <c r="E42" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6638,7 +6750,7 @@
         <v>617</v>
       </c>
       <c r="E43" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6652,7 +6764,7 @@
         <v>618</v>
       </c>
       <c r="E44" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6666,7 +6778,7 @@
         <v>619</v>
       </c>
       <c r="E45" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,7 +6792,7 @@
         <v>620</v>
       </c>
       <c r="E46" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6688,7 +6800,7 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6696,7 +6808,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6704,7 +6816,7 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6712,7 +6824,7 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6720,7 +6832,7 @@
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6731,7 +6843,7 @@
         <v>617</v>
       </c>
       <c r="E52" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6745,7 +6857,7 @@
         <v>622</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6756,10 +6868,10 @@
         <v>623</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6770,7 +6882,7 @@
         <v>624</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6781,7 +6893,7 @@
         <v>625</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6789,13 +6901,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6806,10 +6918,10 @@
         <v>626</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6823,7 +6935,7 @@
         <v>628</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6834,7 +6946,7 @@
         <v>629</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6869,13 +6981,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>633</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6883,16 +6995,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="E65" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6900,13 +7012,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>634</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6920,7 +7032,7 @@
         <v>635</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,7 +7043,7 @@
         <v>637</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6995,10 +7107,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7006,10 +7118,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7063,10 +7175,10 @@
         <v>641</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7077,10 +7189,10 @@
         <v>642</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7094,7 +7206,7 @@
         <v>643</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7137,10 +7249,10 @@
         <v>649</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7167,10 +7279,10 @@
         <v>650</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7181,10 +7293,10 @@
         <v>651</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7203,10 +7315,10 @@
         <v>653</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7217,10 +7329,10 @@
         <v>654</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7231,10 +7343,10 @@
         <v>655</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7245,10 +7357,10 @@
         <v>656</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7259,7 +7371,7 @@
         <v>657</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7296,6 +7408,9 @@
       <c r="C104" s="3" t="s">
         <v>663</v>
       </c>
+      <c r="D104" s="3" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -7307,6 +7422,9 @@
       <c r="C105" s="3" t="s">
         <v>664</v>
       </c>
+      <c r="D105" s="3" t="s">
+        <v>1493</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -7323,8 +7441,14 @@
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="B107" s="4" t="s">
+        <v>1494</v>
+      </c>
       <c r="C107" s="3" t="s">
         <v>666</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7337,6 +7461,9 @@
       <c r="C108" s="3" t="s">
         <v>668</v>
       </c>
+      <c r="D108" s="3" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -7348,6 +7475,9 @@
       <c r="C109" s="3" t="s">
         <v>670</v>
       </c>
+      <c r="D109" s="3" t="s">
+        <v>1497</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
@@ -7370,6 +7500,9 @@
       <c r="C111" s="3" t="s">
         <v>673</v>
       </c>
+      <c r="D111" s="3" t="s">
+        <v>1498</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -7381,8 +7514,11 @@
       <c r="C112" s="3" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -7390,291 +7526,357 @@
         <v>677</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1501</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="B119" s="4" t="s">
+        <v>1505</v>
+      </c>
       <c r="C119" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1520</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7682,10 +7884,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7693,10 +7895,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7704,10 +7906,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7715,7 +7917,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7723,10 +7925,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7734,10 +7936,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7745,7 +7947,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7753,10 +7955,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7764,10 +7966,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7775,10 +7977,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7786,7 +7988,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7794,7 +7996,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7807,10 +8009,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7818,10 +8020,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7829,7 +8031,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7837,7 +8039,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7845,7 +8047,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7853,10 +8055,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7864,7 +8066,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7872,7 +8074,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7880,10 +8082,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7891,7 +8093,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7899,7 +8101,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7915,10 +8117,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7926,10 +8128,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7937,10 +8139,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7948,10 +8150,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7959,10 +8161,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7970,7 +8172,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7978,10 +8180,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7989,10 +8191,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8000,10 +8202,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -8011,10 +8213,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -8022,10 +8224,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8033,7 +8235,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -8041,10 +8243,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8052,10 +8254,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8063,10 +8265,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8074,10 +8276,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8085,10 +8287,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8096,10 +8298,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8107,10 +8309,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8118,10 +8320,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8129,10 +8331,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8140,10 +8342,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8151,10 +8353,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8162,10 +8364,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8173,10 +8375,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,10 +8386,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8195,10 +8397,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8206,10 +8408,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8217,10 +8419,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8228,7 +8430,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8236,10 +8438,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8247,10 +8449,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8258,7 +8460,7 @@
         <v>200</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8266,10 +8468,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,10 +8479,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8288,10 +8490,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8299,7 +8501,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8315,10 +8517,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8326,10 +8528,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8337,7 +8539,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8345,10 +8547,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8356,7 +8558,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8364,7 +8566,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8372,10 +8574,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8383,10 +8585,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8394,10 +8596,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8405,10 +8607,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8416,10 +8618,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8427,7 +8629,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8435,10 +8637,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8454,10 +8656,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8465,10 +8667,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8476,10 +8678,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8487,7 +8689,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8495,10 +8697,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8506,10 +8708,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8517,10 +8719,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8528,7 +8730,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8536,10 +8738,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8547,10 +8749,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8558,7 +8760,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8566,10 +8768,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8577,10 +8779,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8588,7 +8790,7 @@
         <v>233</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8596,10 +8798,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8607,10 +8809,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8618,10 +8820,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8629,10 +8831,10 @@
         <v>237</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8640,10 +8842,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8651,10 +8853,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8662,10 +8864,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -8673,10 +8875,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8684,10 +8886,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8695,10 +8897,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8706,7 +8908,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8714,10 +8916,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8725,7 +8927,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8733,10 +8935,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8744,7 +8946,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8752,10 +8954,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8763,10 +8965,10 @@
         <v>250</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8774,10 +8976,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8785,10 +8987,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8796,10 +8998,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8807,7 +9009,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8815,7 +9017,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8823,7 +9025,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8831,10 +9033,10 @@
         <v>257</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8842,10 +9044,10 @@
         <v>258</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -8853,10 +9055,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8864,10 +9066,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8875,7 +9077,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8883,10 +9085,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8894,10 +9096,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8905,10 +9107,10 @@
         <v>264</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8916,10 +9118,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8927,10 +9129,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8938,10 +9140,10 @@
         <v>267</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8949,10 +9151,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8968,10 +9170,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8979,10 +9181,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8990,7 +9192,7 @@
         <v>272</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8998,10 +9200,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9009,7 +9211,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9017,7 +9219,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9025,16 +9227,16 @@
         <v>276</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="E278" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9042,10 +9244,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9053,10 +9255,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9064,10 +9266,10 @@
         <v>279</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9075,10 +9277,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9086,10 +9288,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9097,7 +9299,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -9105,10 +9307,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9116,10 +9318,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9127,7 +9329,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9135,10 +9337,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9154,10 +9356,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9165,7 +9367,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9173,7 +9375,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9181,7 +9383,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9189,7 +9391,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9197,10 +9399,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9208,10 +9410,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9219,10 +9421,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9230,10 +9432,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9241,10 +9443,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9252,10 +9454,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9263,10 +9465,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9274,10 +9476,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9285,10 +9487,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9296,10 +9498,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9307,10 +9509,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9318,10 +9520,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9329,10 +9531,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9340,10 +9542,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9351,10 +9553,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9362,10 +9564,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9373,10 +9575,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9389,10 +9591,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9400,10 +9602,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9411,7 +9613,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9419,10 +9621,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9430,10 +9632,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9441,10 +9643,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9452,10 +9654,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9463,10 +9665,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9474,10 +9676,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9485,10 +9687,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9496,10 +9698,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9507,10 +9709,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9518,10 +9720,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9529,10 +9731,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9540,10 +9742,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9551,10 +9753,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9562,10 +9764,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9578,7 +9780,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9596,7 +9798,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9604,7 +9806,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9617,7 +9819,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9635,7 +9837,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9653,10 +9855,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9664,10 +9866,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9675,7 +9877,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9683,7 +9885,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9691,7 +9893,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9704,10 +9906,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9715,10 +9917,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9726,7 +9928,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9734,7 +9936,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9742,10 +9944,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9753,7 +9955,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9761,7 +9963,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9769,10 +9971,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9780,10 +9982,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9791,10 +9993,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9802,10 +10004,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9813,10 +10015,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -9824,10 +10026,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9835,10 +10037,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9846,10 +10048,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9857,7 +10059,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9865,10 +10067,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9876,10 +10078,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -9887,10 +10089,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9898,10 +10100,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9909,10 +10111,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9920,10 +10122,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9931,10 +10133,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9942,10 +10144,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9953,10 +10155,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9964,10 +10166,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9975,7 +10177,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9983,7 +10185,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9991,10 +10193,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10002,7 +10204,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10010,7 +10212,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10018,7 +10220,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10026,7 +10228,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10034,7 +10236,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10042,10 +10244,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10053,10 +10255,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10064,10 +10266,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10075,7 +10277,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10083,7 +10285,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10091,7 +10293,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10099,7 +10301,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10117,10 +10319,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10128,7 +10330,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10136,10 +10338,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10147,10 +10349,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10158,7 +10360,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10166,10 +10368,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10177,10 +10379,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10188,10 +10390,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10199,10 +10401,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10210,13 +10412,13 @@
         <v>399</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D401" s="20" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10224,10 +10426,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10235,7 +10437,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10243,10 +10445,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10254,10 +10456,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10265,10 +10467,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10276,7 +10478,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10284,7 +10486,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10292,7 +10494,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10300,10 +10502,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10311,10 +10513,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10322,10 +10524,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10333,7 +10535,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10341,10 +10543,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -10352,10 +10554,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10363,10 +10565,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10374,10 +10576,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10385,7 +10587,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10393,10 +10595,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10404,10 +10606,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10415,10 +10617,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10426,13 +10628,13 @@
         <v>420</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10440,10 +10642,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10451,7 +10653,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10459,10 +10661,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10470,7 +10672,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10478,7 +10680,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10486,10 +10688,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10497,7 +10699,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,7 +10712,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10518,10 +10720,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10529,10 +10731,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10540,10 +10742,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10551,7 +10753,7 @@
         <v>433</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10559,7 +10761,7 @@
         <v>434</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10567,7 +10769,7 @@
         <v>435</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10575,10 +10777,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10586,7 +10788,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10594,10 +10796,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10605,10 +10807,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -10616,10 +10818,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10627,7 +10829,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10635,10 +10837,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10646,7 +10848,7 @@
         <v>443</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10654,7 +10856,7 @@
         <v>444</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10662,7 +10864,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10670,10 +10872,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10681,7 +10883,7 @@
         <v>447</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10689,10 +10891,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10820,7 +11022,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10828,10 +11030,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10847,10 +11049,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10858,7 +11060,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10866,10 +11068,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10877,10 +11079,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10888,10 +11090,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10899,10 +11101,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10910,10 +11112,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10921,7 +11123,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10929,10 +11131,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10940,10 +11142,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10951,10 +11153,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10962,10 +11164,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10973,7 +11175,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10981,7 +11183,7 @@
         <v>489</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10989,10 +11191,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11000,10 +11202,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11011,7 +11213,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11019,10 +11221,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11030,10 +11232,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11041,10 +11243,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11052,7 +11254,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11060,10 +11262,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11071,10 +11273,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11082,10 +11284,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11093,10 +11295,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11104,10 +11306,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11115,10 +11317,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11150,10 +11352,10 @@
         <v>506</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11161,10 +11363,10 @@
         <v>507</v>
       </c>
       <c r="B509" s="11" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11172,10 +11374,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11183,10 +11385,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11194,10 +11396,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11205,10 +11407,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11216,10 +11418,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11227,10 +11429,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11238,10 +11440,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11249,10 +11451,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11260,10 +11462,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11271,10 +11473,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11282,10 +11484,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11293,10 +11495,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11304,10 +11506,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11315,10 +11517,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11326,10 +11528,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11337,10 +11539,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11348,10 +11550,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11359,7 +11561,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11367,7 +11569,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11375,10 +11577,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11386,7 +11588,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11394,7 +11596,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11402,10 +11604,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11413,10 +11615,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11424,10 +11626,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11435,10 +11637,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11446,10 +11648,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11457,10 +11659,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11468,10 +11670,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11479,10 +11681,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11490,13 +11692,13 @@
         <v>538</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11504,10 +11706,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11515,10 +11717,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11526,10 +11728,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11552,10 +11754,10 @@
         <v>545</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11563,10 +11765,10 @@
         <v>546</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11574,10 +11776,10 @@
         <v>547</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11585,10 +11787,10 @@
         <v>548</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11596,10 +11798,10 @@
         <v>549</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11607,7 +11809,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11615,10 +11817,10 @@
         <v>551</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11626,7 +11828,7 @@
         <v>552</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11634,10 +11836,10 @@
         <v>553</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -11650,7 +11852,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11658,7 +11860,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11666,7 +11868,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11674,7 +11876,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11682,7 +11884,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11690,7 +11892,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11698,7 +11900,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11706,7 +11908,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11714,7 +11916,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11727,7 +11929,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11735,7 +11937,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11743,7 +11945,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="12" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11751,10 +11953,10 @@
         <v>568</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11762,7 +11964,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="13" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11770,10 +11972,10 @@
         <v>570</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11781,7 +11983,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11794,7 +11996,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11802,7 +12004,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11810,7 +12012,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -12431,18 +12633,18 @@
   <sheetData>
     <row r="2" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -12450,7 +12652,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -12465,15 +12667,15 @@
     </row>
     <row r="7" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>593</v>
@@ -12501,123 +12703,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C1" t="s">
         <v>1425</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B2" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C2" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B3" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C3" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B4" t="s">
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B5" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C5" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="B6" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B7" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
   </sheetData>

--- a/css.xlsx
+++ b/css.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="1526">
   <si>
     <t>:active</t>
   </si>
@@ -5708,6 +5708,14 @@
   </si>
   <si>
     <t>atuo | &lt;length&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>columns: 6rem auto;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;'column-width'&gt; || &lt;'column-count'&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6201,7 +6209,7 @@
   <dimension ref="A2:E578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7798,6 +7806,12 @@
       </c>
       <c r="B136" s="4" t="s">
         <v>739</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/css.xlsx
+++ b/css.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1571">
   <si>
     <t>:active</t>
   </si>
@@ -2439,14 +2439,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>跨列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列宽度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>列宽和列数。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2470,21 +2462,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>自动生成的某个值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对部分和子部分进行编号</t>
-  </si>
-  <si>
-    <t>counter-reset: chapter section 1 page;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>counter-increment: counter 1 counter2 -4;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>translate: none;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2505,22 +2482,6 @@
   </si>
   <si>
     <t>未实现</t>
-  </si>
-  <si>
-    <t>找不到页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>混合图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼知道什么玩意</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宽松函数。 贝塞尔曲线;   </t>
@@ -2811,10 +2772,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>flex 元素在主轴方向上的初始大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>flex-basis: 3px;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2827,10 +2784,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>更多信息参见 使用 CSS 弹性盒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>flex-flow: column-reverse wrap;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2839,10 +2792,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>项（flex item）的拉伸因子。(人话是宽度)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>缩小宽度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2851,19 +2800,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>单行显示还是多行显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>flex-wrap: wrap;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float: left;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2889,18 +2830,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-      font-family: "Bitstream Vera Serif Bold";
-      src: url(".ttf");
-    }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>字体家族</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>font-family: serif;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2915,10 +2845,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>控制OpenType字体中的高级印刷功能。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>font-feature-settings: "smcp", "zero";</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2935,24 +2861,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>是否使用字体中储存的字距信息。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>font-kerning: auto;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>font-language-override: normal;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">适用于具有光学尺寸变化轴的字体。
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chrom不支持</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3028,10 +2941,6 @@
   </si>
   <si>
     <t>font-variant-east-asian: ruby;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字体变形束缚</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3112,10 +3021,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>设置网格行与列之间的间隙,是row-gap and column-gap的简写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>圆,百分度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3350,12 +3255,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>background-image: image-set( "cat.png" 1x,
-                             "cat-2x.png" 2x,
-                             "cat-print.png" 600dpi);</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>其他样式表导入样式规则</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3397,16 +3296,6 @@
   </si>
   <si>
     <t>初始（或默认）值应用于元素</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>em {
-  color: initial;
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据元素块的写入模式定义元素块的水平或垂直大小</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5716,6 +5605,300 @@
   </si>
   <si>
     <t>&lt;'column-width'&gt; || &lt;'column-count'&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列宽度-设置宽度自动切段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>都支持,可以代替宽度了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨列-配合columns:2;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一大把浏览器不支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到浏览器的兼容数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;custom-ident&gt; | &lt;integer&gt; | none//section这个好记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter-increment: wangxiaoer;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数增长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数名字 初始数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成的某个值,计数,整数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter-reset: wangxiaoer 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ::after,::before{content: counter(wangxiaoer);}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>counters对页面中的任意元素进行计数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content:"Fig." counter(counterA);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross-fade( &lt;image&gt;, &lt;image&gt;, &lt;percentage&gt; )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图片透明叠加属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transition-timing-function: cubic-bezier(0.42,0,1,1);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> flex-direction 和 flex-wrap 的简写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>row | row-reverse | column | column-reverse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nowrap | wrap | wrap-reverse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">flex 元素在主轴方向上的初始大小,也就是width的替代品。 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content | &lt;'width'&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项（flex item）的拉伸因子。(人话是宽度(倍数))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;number&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;number&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单行显示还是多行显示(简称换行)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>left | right | none | inline-start | inline-end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪类一个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-family: serif;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      font-family: "serif";
+      src: url(".ttf");
+    }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>family-name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>family-name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal | italic | oblique &lt;angle&gt;?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制OpenType字体中的高级印刷功能。减除字体动画震颤效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal | &lt;feature-tag-value&gt;;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（字距）定义了字母的分布情况。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto | normal | none</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制特定语言的字形在字体的使用。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal | &lt;string&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于具有光学尺寸变化轴的字体。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrom不支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;absolute-size&gt; | &lt;relative-size&gt; | &lt;length-percentage&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>none | &lt;number&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义字体大小应取决于小写字母</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-stretch: condensed;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal | ultra-condensed | extra-condensed | condensed | semi-condensed | semi-expanded | expanded | extra-expanded | ultra-expanded | &lt;percentage&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>font-synthesis: style;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>none | [ weight || style ]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">normal | none | </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal | small-caps | all-small-caps | petite-caps | all-petite-caps | unicase | titling-caps</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chorme和Firefox支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好多不支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">字体变形束缚,字体变体连字 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个就不记了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行与列之间的间隙,设置网格行与列之间的间隙,是row-gap and column-gap的简写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;length&gt; | &lt;percentage&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线形渐变 | 径向渐变 | 重复渐变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeating-linear-gradient(to top left,
+      lightpink, lightpink 5px, white 5px, white 10px);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount
+转换值的大小, 可以是&lt;number&gt; 或 &lt;percentage&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto | crisp-edges | pixelated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-image:;
+background-image: image-set( "cat.png" 1x,
+                             "cat-2x.png" 2x,
+                             "cat-print.png" 600dpi);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie不支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;input type="number" min="5" max="10" value="7" /&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkbox半勾选状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>em {
+  color: initial;
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据元素块的写入模式定义元素块的水平或垂直大小(直列大小)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inset( &lt;shape-arg&gt;{1,4} [round &lt;border-radius&gt;]? )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ie 和 safari 不支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount(数量)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex-start|flex-end|center|space-between|space-around|initial|inherit;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5798,12 +5981,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
@@ -5830,6 +6007,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5888,10 +6073,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5903,7 +6085,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5915,7 +6097,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5923,6 +6105,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6208,8 +6393,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:E578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6330,13 +6515,13 @@
         <v>594</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1359</v>
+        <v>1333</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1366</v>
+        <v>1340</v>
       </c>
       <c r="E12" t="s">
-        <v>1457</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6347,13 +6532,13 @@
         <v>595</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1360</v>
+        <v>1334</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1361</v>
+        <v>1335</v>
       </c>
       <c r="E13" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6364,13 +6549,13 @@
         <v>596</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1362</v>
+        <v>1336</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1363</v>
+        <v>1337</v>
       </c>
       <c r="E14" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6378,16 +6563,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1372</v>
+        <v>1346</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1364</v>
+        <v>1338</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1371</v>
+        <v>1345</v>
       </c>
       <c r="E15" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,10 +6586,10 @@
         <v>597</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1365</v>
+        <v>1339</v>
       </c>
       <c r="E16" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6415,13 +6600,13 @@
         <v>599</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1373</v>
+        <v>1347</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1374</v>
+        <v>1348</v>
       </c>
       <c r="E17" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6432,10 +6617,10 @@
         <v>600</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1368</v>
+        <v>1342</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1367</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,13 +6628,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1378</v>
+        <v>1352</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1380</v>
+        <v>1354</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1379</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6457,13 +6642,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1369</v>
+        <v>1343</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1370</v>
+        <v>1344</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1381</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6471,27 +6656,27 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1375</v>
+        <v>1349</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1376</v>
+        <v>1350</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1377</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>1382</v>
+      <c r="B22" s="16" t="s">
+        <v>1356</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1383</v>
+        <v>1357</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1384</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6499,10 +6684,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1385</v>
+        <v>1359</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1386</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6513,10 +6698,10 @@
         <v>601</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1387</v>
+        <v>1361</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1388</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6532,13 +6717,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1391</v>
+        <v>1365</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1390</v>
+        <v>1364</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1389</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -6546,16 +6731,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1395</v>
+        <v>1369</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1394</v>
+        <v>1368</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1393</v>
+        <v>1367</v>
       </c>
       <c r="E27" t="s">
-        <v>1392</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6563,13 +6748,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1397</v>
+        <v>1371</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>603</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1396</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -6580,10 +6765,10 @@
         <v>604</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1399</v>
+        <v>1373</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1398</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6594,10 +6779,10 @@
         <v>605</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1400</v>
+        <v>1374</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1401</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6605,13 +6790,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1402</v>
+        <v>1376</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>606</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1403</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,13 +6804,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1404</v>
+        <v>1378</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>607</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1405</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6636,7 +6821,7 @@
         <v>608</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1406</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6647,10 +6832,10 @@
         <v>609</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1407</v>
+        <v>1381</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1408</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6661,7 +6846,7 @@
         <v>610</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1409</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6669,13 +6854,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1410</v>
+        <v>1384</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>611</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1411</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6697,10 +6882,10 @@
         <v>614</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1412</v>
+        <v>1386</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1409</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6708,13 +6893,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1413</v>
+        <v>1387</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>615</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1414</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6725,7 +6910,7 @@
         <v>616</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1415</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6736,7 +6921,7 @@
         <v>617</v>
       </c>
       <c r="E41" t="s">
-        <v>1416</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6747,7 +6932,7 @@
         <v>617</v>
       </c>
       <c r="E42" t="s">
-        <v>1416</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6758,7 +6943,7 @@
         <v>617</v>
       </c>
       <c r="E43" t="s">
-        <v>1417</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6772,7 +6957,7 @@
         <v>618</v>
       </c>
       <c r="E44" t="s">
-        <v>1417</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6786,7 +6971,7 @@
         <v>619</v>
       </c>
       <c r="E45" t="s">
-        <v>1418</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6800,7 +6985,7 @@
         <v>620</v>
       </c>
       <c r="E46" t="s">
-        <v>1418</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6808,7 +6993,7 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>1417</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6816,7 +7001,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>1418</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6824,7 +7009,7 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>1418</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,7 +7017,7 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>1418</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6840,7 +7025,7 @@
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>1416</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6851,7 +7036,7 @@
         <v>617</v>
       </c>
       <c r="E52" t="s">
-        <v>1416</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,7 +7050,7 @@
         <v>622</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1445</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6876,10 +7061,10 @@
         <v>623</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1447</v>
+        <v>1421</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1446</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6890,7 +7075,7 @@
         <v>624</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1448</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6901,7 +7086,7 @@
         <v>625</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1449</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6909,13 +7094,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>1451</v>
+        <v>1425</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1452</v>
+        <v>1426</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1450</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6926,10 +7111,10 @@
         <v>626</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1453</v>
+        <v>1427</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1454</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6943,7 +7128,7 @@
         <v>628</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1455</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6954,7 +7139,7 @@
         <v>629</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1458</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6989,13 +7174,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1459</v>
+        <v>1433</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>633</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1460</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7003,16 +7188,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1472</v>
+        <v>1446</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1474</v>
+        <v>1448</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1473</v>
+        <v>1447</v>
       </c>
       <c r="E65" t="s">
-        <v>1416</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7020,13 +7205,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1461</v>
+        <v>1435</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>634</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1475</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7040,7 +7225,7 @@
         <v>635</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1462</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7051,7 +7236,7 @@
         <v>637</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1463</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7115,10 +7300,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>1350</v>
+        <v>1323</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7126,10 +7311,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>1350</v>
+        <v>1323</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7183,10 +7368,10 @@
         <v>641</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1466</v>
+        <v>1440</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1465</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7197,10 +7382,10 @@
         <v>642</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1467</v>
+        <v>1441</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1468</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7214,7 +7399,7 @@
         <v>643</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1469</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7257,10 +7442,10 @@
         <v>649</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1470</v>
+        <v>1444</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1471</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7287,10 +7472,10 @@
         <v>650</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1482</v>
+        <v>1456</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1481</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7301,10 +7486,10 @@
         <v>651</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1484</v>
+        <v>1458</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1483</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7323,10 +7508,10 @@
         <v>653</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1485</v>
+        <v>1459</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1486</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7337,10 +7522,10 @@
         <v>654</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1487</v>
+        <v>1461</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1486</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7351,10 +7536,10 @@
         <v>655</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1488</v>
+        <v>1462</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1481</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7365,10 +7550,10 @@
         <v>656</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1489</v>
+        <v>1463</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1490</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7379,7 +7564,7 @@
         <v>657</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1491</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7417,7 +7602,7 @@
         <v>663</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1492</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7431,7 +7616,7 @@
         <v>664</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1493</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7450,13 +7635,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1494</v>
+        <v>1468</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>666</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1495</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,7 +7655,7 @@
         <v>668</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1496</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7484,7 +7669,7 @@
         <v>670</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1497</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7509,7 +7694,7 @@
         <v>673</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>1498</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7523,7 +7708,7 @@
         <v>676</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1499</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7539,10 +7724,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1500</v>
+        <v>1474</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7550,10 +7735,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1501</v>
+        <v>1475</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7564,7 +7749,7 @@
         <v>678</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1502</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7578,7 +7763,7 @@
         <v>679</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1503</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7589,7 +7774,7 @@
         <v>681</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1504</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7597,13 +7782,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1505</v>
+        <v>1479</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>1506</v>
+        <v>1480</v>
       </c>
       <c r="E119" t="s">
-        <v>1507</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7614,10 +7799,10 @@
         <v>682</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>1508</v>
+        <v>1482</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1509</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7639,7 +7824,7 @@
         <v>685</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7688,7 +7873,7 @@
         <v>692</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1511</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7702,7 +7887,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
@@ -7713,10 +7898,10 @@
         <v>730</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
@@ -7727,10 +7912,10 @@
         <v>733</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
@@ -7738,13 +7923,13 @@
         <v>734</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>1515</v>
+        <v>1489</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -7752,13 +7937,13 @@
         <v>735</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>1516</v>
+        <v>1490</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -7766,131 +7951,152 @@
         <v>736</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>1519</v>
+        <v>1493</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>737</v>
+        <v>1502</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>1520</v>
+        <v>1494</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>738</v>
+        <v>1500</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>1522</v>
+        <v>1496</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>1524</v>
+        <v>1498</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1499</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1509</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>746</v>
+      <c r="B141" s="20" t="s">
+        <v>1507</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>746</v>
+      <c r="B142" s="20" t="s">
+        <v>1508</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>755</v>
+        <v>1512</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7898,10 +8104,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>756</v>
+        <v>1515</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>757</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7909,10 +8115,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>758</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7920,10 +8126,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7931,7 +8137,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7939,10 +8145,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7950,10 +8156,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7961,7 +8167,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7969,10 +8175,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7980,10 +8186,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7991,10 +8197,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8002,7 +8208,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8010,7 +8216,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8023,10 +8229,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>777</v>
+        <v>766</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8034,10 +8240,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,7 +8251,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8053,7 +8259,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8061,7 +8267,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8069,10 +8275,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8080,7 +8286,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8088,7 +8294,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8096,10 +8302,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8107,7 +8313,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8115,7 +8321,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8130,11 +8336,11 @@
       <c r="A170" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B170" s="10" t="s">
-        <v>790</v>
+      <c r="B170" s="9" t="s">
+        <v>780</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8142,10 +8348,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8153,10 +8359,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8164,10 +8370,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8175,10 +8381,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>798</v>
+        <v>789</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8186,7 +8392,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8194,331 +8400,385 @@
         <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>820</v>
+        <v>1520</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>824</v>
+        <v>1517</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>827</v>
+        <v>1522</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>830</v>
+        <v>1525</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>833</v>
+        <v>1526</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1529</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>844</v>
+        <v>1534</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>849</v>
+        <v>1536</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="B202" s="4" t="s">
+        <v>1538</v>
+      </c>
       <c r="C202" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="15" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>857</v>
+        <v>1544</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -8526,138 +8786,162 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>861</v>
+      <c r="B209" s="10" t="s">
+        <v>840</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C210" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>872</v>
+        <v>1553</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -8665,513 +8949,549 @@
         <v>404</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B223" s="11" t="s">
-        <v>884</v>
+      <c r="B223" s="10" t="s">
+        <v>862</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>891</v>
+        <v>1555</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>953</v>
+        <v>929</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>961</v>
+        <v>1566</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>964</v>
-      </c>
       <c r="C269" s="3" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>269</v>
       </c>
@@ -9179,15 +9499,18 @@
         <v>404</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>968</v>
+        <v>942</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9195,10 +9518,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>969</v>
+        <v>943</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9206,26 +9529,26 @@
         <v>272</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>970</v>
+        <v>944</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>972</v>
-      </c>
       <c r="C275" s="3" t="s">
-        <v>971</v>
+        <v>945</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>972</v>
+      <c r="E276" s="4" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9233,7 +9556,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1476</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9241,16 +9564,16 @@
         <v>276</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>1480</v>
+        <v>1454</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>973</v>
+        <v>947</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>1411</v>
+        <v>1385</v>
       </c>
       <c r="E278" t="s">
-        <v>1479</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9258,10 +9581,13 @@
         <v>277</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>975</v>
+        <v>949</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9269,10 +9595,10 @@
         <v>278</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1477</v>
+        <v>1451</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9280,10 +9606,13 @@
         <v>279</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>978</v>
+        <v>952</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9291,10 +9620,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>980</v>
+        <v>954</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9302,10 +9631,10 @@
         <v>281</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>981</v>
+        <v>955</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9313,7 +9642,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>983</v>
+        <v>957</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -9321,10 +9650,10 @@
         <v>283</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9332,10 +9661,10 @@
         <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9343,7 +9672,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9351,10 +9680,10 @@
         <v>286</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9370,10 +9699,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9381,7 +9710,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9389,7 +9718,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9397,7 +9726,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9405,7 +9734,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1478</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9413,10 +9742,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9424,10 +9753,10 @@
         <v>294</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>998</v>
+        <v>972</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9435,10 +9764,10 @@
         <v>295</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1001</v>
+        <v>975</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1000</v>
+        <v>974</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9446,10 +9775,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>1002</v>
+        <v>976</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9457,10 +9786,10 @@
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>1004</v>
+        <v>978</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1005</v>
+        <v>979</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9468,10 +9797,10 @@
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>1006</v>
+        <v>980</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1007</v>
+        <v>981</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9479,10 +9808,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>1008</v>
+        <v>982</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9490,10 +9819,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9501,10 +9830,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9512,10 +9841,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9523,10 +9852,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9534,10 +9863,10 @@
         <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>1019</v>
+        <v>993</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9545,10 +9874,10 @@
         <v>305</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>1021</v>
+        <v>995</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9556,10 +9885,10 @@
         <v>306</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>1023</v>
+        <v>997</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9567,10 +9896,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1024</v>
+        <v>998</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9578,10 +9907,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1026</v>
+        <v>1000</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1027</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9589,10 +9918,10 @@
         <v>309</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>1029</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9605,10 +9934,10 @@
         <v>311</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1030</v>
+        <v>1004</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>1031</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9616,10 +9945,10 @@
         <v>312</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1032</v>
+        <v>1006</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>1033</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9627,7 +9956,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1034</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9635,10 +9964,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1035</v>
+        <v>1009</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>1036</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9646,10 +9975,10 @@
         <v>315</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1038</v>
+        <v>1012</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>1037</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9657,10 +9986,10 @@
         <v>316</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>1039</v>
+        <v>1013</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>1040</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9668,10 +9997,10 @@
         <v>317</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1041</v>
+        <v>1015</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>1042</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9679,10 +10008,10 @@
         <v>318</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1043</v>
+        <v>1017</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1044</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9690,10 +10019,10 @@
         <v>319</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1045</v>
+        <v>1019</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>1046</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9701,10 +10030,10 @@
         <v>320</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1048</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9712,10 +10041,10 @@
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1049</v>
+        <v>1023</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1050</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9723,10 +10052,10 @@
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1051</v>
+        <v>1025</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>1052</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9734,10 +10063,10 @@
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1054</v>
+        <v>1028</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1053</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9745,10 +10074,10 @@
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>1055</v>
+        <v>1029</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>1056</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9756,10 +10085,10 @@
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>1057</v>
+        <v>1031</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1058</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9767,10 +10096,10 @@
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1059</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9778,10 +10107,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>1061</v>
+        <v>1035</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>1062</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9794,7 +10123,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>1063</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9812,7 +10141,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>1064</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9820,7 +10149,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>1065</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9833,7 +10162,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>1066</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9851,7 +10180,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>1067</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9869,10 +10198,10 @@
         <v>341</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1068</v>
+        <v>1042</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>1069</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9880,10 +10209,10 @@
         <v>342</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1071</v>
+        <v>1045</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>1070</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9891,7 +10220,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1072</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9899,7 +10228,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1073</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9907,7 +10236,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1074</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9920,10 +10249,10 @@
         <v>347</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>1076</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9931,10 +10260,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1077</v>
+        <v>1051</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>1078</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9942,7 +10271,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1079</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9950,7 +10279,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1080</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9958,10 +10287,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1081</v>
+        <v>1055</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>1082</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9969,7 +10298,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1083</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9977,7 +10306,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1084</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9985,10 +10314,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1086</v>
+        <v>1060</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1085</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9996,10 +10325,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1087</v>
+        <v>1061</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1088</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10007,10 +10336,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1089</v>
+        <v>1063</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1090</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10018,10 +10347,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1091</v>
+        <v>1065</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1092</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10029,10 +10358,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1093</v>
+        <v>1067</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1094</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -10040,10 +10369,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1096</v>
+        <v>1070</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1095</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10051,10 +10380,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1097</v>
+        <v>1071</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1098</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10062,10 +10391,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>1099</v>
+        <v>1073</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1100</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10073,7 +10402,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1101</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10081,10 +10410,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1102</v>
+        <v>1076</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10092,10 +10421,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1104</v>
+        <v>1078</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -10103,10 +10432,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1106</v>
+        <v>1080</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1107</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10114,10 +10443,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1108</v>
+        <v>1082</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1109</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10125,10 +10454,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1111</v>
+        <v>1085</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1110</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10136,10 +10465,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1112</v>
+        <v>1086</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1113</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10147,10 +10476,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1114</v>
+        <v>1088</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1115</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10158,10 +10487,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1117</v>
+        <v>1091</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1116</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10169,10 +10498,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1119</v>
+        <v>1093</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1118</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10180,10 +10509,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1121</v>
+        <v>1095</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1120</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10191,7 +10520,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1121</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10199,7 +10528,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1122</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10207,10 +10536,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1123</v>
+        <v>1097</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1124</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10218,7 +10547,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1125</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10226,7 +10555,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1126</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10234,7 +10563,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1127</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10242,7 +10571,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1128</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10250,7 +10579,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1129</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10258,10 +10587,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1130</v>
+        <v>1104</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1131</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10269,10 +10598,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1133</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10280,10 +10609,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1134</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10291,7 +10620,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1135</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10299,7 +10628,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1136</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10307,7 +10636,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1137</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10315,7 +10644,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1138</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10333,10 +10662,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1141</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10344,7 +10673,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1139</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10352,10 +10681,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1142</v>
+        <v>1116</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1143</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10363,10 +10692,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1144</v>
+        <v>1118</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10374,7 +10703,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1146</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10382,10 +10711,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1147</v>
+        <v>1121</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1148</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10393,10 +10722,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1150</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10404,10 +10733,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10415,10 +10744,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10426,12 +10755,12 @@
         <v>399</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1155</v>
+        <v>1129</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D401" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D401" s="19" t="s">
         <v>703</v>
       </c>
     </row>
@@ -10440,10 +10769,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1157</v>
+        <v>1131</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10451,7 +10780,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1161</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10459,10 +10788,10 @@
         <v>402</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1159</v>
+        <v>1133</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1160</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10470,10 +10799,10 @@
         <v>403</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1163</v>
+        <v>1137</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1162</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10481,10 +10810,10 @@
         <v>404</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1164</v>
+        <v>1138</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1165</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10492,7 +10821,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10500,7 +10829,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1167</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10508,7 +10837,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10516,10 +10845,10 @@
         <v>408</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10527,10 +10856,10 @@
         <v>409</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1171</v>
+        <v>1145</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10538,10 +10867,10 @@
         <v>410</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10549,7 +10878,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10557,10 +10886,10 @@
         <v>412</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1176</v>
+        <v>1150</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>1177</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -10568,10 +10897,10 @@
         <v>413</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1178</v>
+        <v>1152</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1179</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10579,10 +10908,10 @@
         <v>414</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1180</v>
+        <v>1154</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>1181</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10590,10 +10919,10 @@
         <v>415</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1182</v>
+        <v>1156</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>1183</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10601,7 +10930,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1184</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10609,10 +10938,10 @@
         <v>417</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1185</v>
+        <v>1159</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10620,10 +10949,10 @@
         <v>418</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1187</v>
+        <v>1161</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1188</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10631,10 +10960,10 @@
         <v>419</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>1189</v>
+        <v>1163</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1190</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10642,13 +10971,13 @@
         <v>420</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1191</v>
+        <v>1165</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1192</v>
+        <v>1166</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1411</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10656,10 +10985,10 @@
         <v>421</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>1193</v>
+        <v>1167</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1194</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10667,7 +10996,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1195</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10675,10 +11004,10 @@
         <v>423</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>1196</v>
+        <v>1170</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1197</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10686,7 +11015,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>1198</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10694,7 +11023,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>1199</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10702,10 +11031,10 @@
         <v>426</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>1200</v>
+        <v>1174</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1201</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10713,7 +11042,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1202</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10726,7 +11055,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1203</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10734,10 +11063,10 @@
         <v>430</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1204</v>
+        <v>1178</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1205</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10745,10 +11074,10 @@
         <v>431</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1206</v>
+        <v>1180</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10756,10 +11085,10 @@
         <v>432</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1208</v>
+        <v>1182</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1209</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10767,7 +11096,7 @@
         <v>433</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1210</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10775,7 +11104,7 @@
         <v>434</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1211</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10783,7 +11112,7 @@
         <v>435</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1212</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10791,10 +11120,10 @@
         <v>436</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>1213</v>
+        <v>1187</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1214</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10802,7 +11131,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1215</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10810,10 +11139,10 @@
         <v>438</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1217</v>
+        <v>1191</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10821,10 +11150,10 @@
         <v>439</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1218</v>
+        <v>1192</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1219</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -10832,10 +11161,10 @@
         <v>440</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1220</v>
+        <v>1194</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1221</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10843,7 +11172,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1222</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10851,10 +11180,10 @@
         <v>442</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1223</v>
+        <v>1197</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1224</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10862,7 +11191,7 @@
         <v>443</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1225</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10870,7 +11199,7 @@
         <v>444</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1226</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10878,7 +11207,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>1227</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10886,10 +11215,10 @@
         <v>446</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>1228</v>
+        <v>1202</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>1229</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10897,7 +11226,7 @@
         <v>447</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>1230</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -10905,10 +11234,10 @@
         <v>448</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1231</v>
+        <v>1205</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>1232</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11036,7 +11365,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1310</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11044,10 +11373,10 @@
         <v>474</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1311</v>
+        <v>1285</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>1312</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11063,10 +11392,10 @@
         <v>476</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1314</v>
+        <v>1288</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>1313</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11074,7 +11403,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1315</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11082,10 +11411,10 @@
         <v>478</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1316</v>
+        <v>1290</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>1317</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11093,10 +11422,10 @@
         <v>479</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1319</v>
+        <v>1293</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1318</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11104,10 +11433,10 @@
         <v>480</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1320</v>
+        <v>1294</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1321</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11115,10 +11444,10 @@
         <v>481</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1323</v>
+        <v>1297</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>1322</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11126,10 +11455,10 @@
         <v>482</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1324</v>
+        <v>1298</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11137,7 +11466,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1326</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11145,10 +11474,10 @@
         <v>484</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1327</v>
+        <v>1301</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>1328</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11156,10 +11485,10 @@
         <v>485</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1329</v>
+        <v>1303</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>1330</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11167,10 +11496,10 @@
         <v>486</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1331</v>
+        <v>1305</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1332</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11178,10 +11507,10 @@
         <v>487</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C489" s="14" t="s">
-        <v>1334</v>
+        <v>1307</v>
+      </c>
+      <c r="C489" s="13" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11189,7 +11518,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1335</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11197,7 +11526,7 @@
         <v>489</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>1336</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11205,10 +11534,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1338</v>
+        <v>1312</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1337</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11216,10 +11545,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1342</v>
+        <v>1316</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>1337</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11227,7 +11556,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1343</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11235,10 +11564,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1347</v>
+        <v>1321</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>1346</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11246,10 +11575,10 @@
         <v>494</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1344</v>
+        <v>1318</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>1345</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11257,10 +11586,10 @@
         <v>495</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1340</v>
+        <v>1314</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>1341</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11268,7 +11597,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1339</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11276,10 +11605,10 @@
         <v>497</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1308</v>
+        <v>1282</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>1309</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11287,10 +11616,10 @@
         <v>498</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1306</v>
+        <v>1280</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1307</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11298,10 +11627,10 @@
         <v>499</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1304</v>
+        <v>1278</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>1305</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11309,10 +11638,10 @@
         <v>500</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1303</v>
+        <v>1277</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>1302</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11320,10 +11649,10 @@
         <v>501</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>1301</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11331,10 +11660,10 @@
         <v>502</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1298</v>
+        <v>1272</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1299</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11366,21 +11695,21 @@
         <v>506</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1296</v>
+        <v>1270</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>1297</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B509" s="11" t="s">
-        <v>1294</v>
+      <c r="B509" s="10" t="s">
+        <v>1268</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1295</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11388,10 +11717,10 @@
         <v>508</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1291</v>
+        <v>1265</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1293</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11399,10 +11728,10 @@
         <v>509</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1290</v>
+        <v>1264</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1292</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11410,10 +11739,10 @@
         <v>510</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1288</v>
+        <v>1262</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>1289</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11421,10 +11750,10 @@
         <v>511</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>1287</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11432,10 +11761,10 @@
         <v>512</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1284</v>
+        <v>1258</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>1285</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11443,10 +11772,10 @@
         <v>513</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1283</v>
+        <v>1257</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1282</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11454,10 +11783,10 @@
         <v>514</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1280</v>
+        <v>1254</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1281</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11465,10 +11794,10 @@
         <v>515</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1278</v>
+        <v>1252</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1279</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11476,10 +11805,10 @@
         <v>516</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1276</v>
+        <v>1250</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1277</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11487,10 +11816,10 @@
         <v>517</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1274</v>
+        <v>1248</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1275</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11498,10 +11827,10 @@
         <v>518</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1272</v>
+        <v>1246</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1273</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11509,10 +11838,10 @@
         <v>519</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1270</v>
+        <v>1244</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1271</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11520,10 +11849,10 @@
         <v>520</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1268</v>
+        <v>1242</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1269</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11531,10 +11860,10 @@
         <v>521</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1266</v>
+        <v>1240</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1267</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11542,10 +11871,10 @@
         <v>522</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1264</v>
+        <v>1238</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1265</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11553,10 +11882,10 @@
         <v>523</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1262</v>
+        <v>1236</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1263</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11564,10 +11893,10 @@
         <v>524</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11575,7 +11904,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1259</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11583,7 +11912,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1258</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11591,10 +11920,10 @@
         <v>527</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>1256</v>
+        <v>1230</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>1257</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11602,7 +11931,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1255</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11610,7 +11939,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>1254</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11618,10 +11947,10 @@
         <v>530</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1252</v>
+        <v>1226</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1253</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11629,10 +11958,10 @@
         <v>531</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1250</v>
+        <v>1224</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1251</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11640,10 +11969,10 @@
         <v>532</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1248</v>
+        <v>1222</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1249</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11651,10 +11980,10 @@
         <v>533</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1246</v>
+        <v>1220</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1247</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11662,10 +11991,10 @@
         <v>534</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1244</v>
+        <v>1218</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1245</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11673,10 +12002,10 @@
         <v>535</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1242</v>
+        <v>1216</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1243</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11684,10 +12013,10 @@
         <v>536</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1240</v>
+        <v>1214</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1241</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11695,10 +12024,10 @@
         <v>537</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1238</v>
+        <v>1212</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1239</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11706,13 +12035,13 @@
         <v>538</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1236</v>
+        <v>1210</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1237</v>
+        <v>1211</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>1235</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11720,10 +12049,10 @@
         <v>539</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1233</v>
+        <v>1207</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1234</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11731,10 +12060,10 @@
         <v>540</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11742,10 +12071,10 @@
         <v>541</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11922,7 +12251,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1348</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -11958,7 +12287,7 @@
       <c r="A569" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B569" s="12" t="s">
+      <c r="B569" s="11" t="s">
         <v>703</v>
       </c>
     </row>
@@ -11977,7 +12306,7 @@
       <c r="A571" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B571" s="13" t="s">
+      <c r="B571" s="12" t="s">
         <v>700</v>
       </c>
     </row>
@@ -12639,59 +12968,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="23.21875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1352</v>
+      <c r="A2" s="15" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1354</v>
+      <c r="A3" s="14" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>1355</v>
+      <c r="C4" s="15" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1357</v>
+      <c r="A7" s="14" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="14" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>593</v>
       </c>
     </row>
@@ -12717,123 +13046,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1421</v>
+        <v>1395</v>
       </c>
       <c r="B1" t="s">
-        <v>1422</v>
+        <v>1396</v>
       </c>
       <c r="C1" t="s">
-        <v>1425</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1464</v>
+        <v>1438</v>
       </c>
       <c r="B2" t="s">
-        <v>1423</v>
+        <v>1397</v>
       </c>
       <c r="C2" t="s">
-        <v>1410</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1439</v>
+        <v>1413</v>
       </c>
       <c r="B3" t="s">
-        <v>1424</v>
+        <v>1398</v>
       </c>
       <c r="C3" t="s">
-        <v>1426</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1432</v>
+        <v>1406</v>
       </c>
       <c r="B4" t="s">
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>1435</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1437</v>
+        <v>1411</v>
       </c>
       <c r="B5" t="s">
-        <v>1431</v>
+        <v>1405</v>
       </c>
       <c r="C5" t="s">
-        <v>1440</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1436</v>
+        <v>1410</v>
       </c>
       <c r="B6" t="s">
-        <v>1433</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1441</v>
+        <v>1415</v>
       </c>
       <c r="B7" t="s">
-        <v>1443</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1419</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1438</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1420</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1427</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1428</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1429</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1430</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1434</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1442</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1444</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
